--- a/gd/美术需求文档/通用特效需求.xlsx
+++ b/gd/美术需求文档/通用特效需求.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn（策划）\美术需求文档\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="13005"/>
   </bookViews>
@@ -214,18 +219,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3种强度的斩击受击特效，高级特效的残留和层次感要逐级提升。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3种强度的刺击受击特效，高级特效的残留和层次感要逐级提升。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3种强度的砸击受击特效，砸中目标地面，目标受击点有反馈光效，高级特效的残留和层次感要逐级提升。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>光弹坠落攻击敌人，受击点光球爆破，高级特效的残留和层次感要逐级提升。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -326,14 +319,26 @@
   </si>
   <si>
     <t>草绿色聚气效果，采用叶片元素汇聚到施法挂接点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3种强度的刺击受击特效，高级特效的残留和层次感要逐级提升.(由于物攻添加属性，需求特效为5属性颜色红绿蓝紫黄)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3种强度的砸击受击特效，砸中目标地面，目标受击点有反馈光效，高级特效的残留和层次感要逐级提升。(由于物攻添加属性，需求特效为5属性颜色红绿蓝紫黄)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3种强度的斩击受击特效，高级特效的残留和层次感要逐级提升。(由于物攻添加属性，需求特效为5属性颜色红绿蓝紫黄)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,6 +414,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1635,7 +1648,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1667,9 +1680,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1701,6 +1715,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1876,14 +1891,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.25" style="1" customWidth="1"/>
@@ -1891,12 +1906,12 @@
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1907,87 +1922,87 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="27.75" customHeight="1">
+    <row r="4" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="27.75" customHeight="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:3" ht="27.75" customHeight="1">
+    <row r="6" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:3" ht="28.5" customHeight="1">
+    <row r="13" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="28.5" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:3" ht="28.5" customHeight="1">
+    <row r="15" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:3" ht="64.5" customHeight="1">
+    <row r="16" spans="1:3" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1995,7 +2010,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="128.25" customHeight="1">
+    <row r="17" spans="1:2" ht="128.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -2003,7 +2018,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -2011,7 +2026,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="83.25" customHeight="1">
+    <row r="19" spans="1:2" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -2019,7 +2034,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="84" customHeight="1">
+    <row r="20" spans="1:2" ht="84" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -2027,7 +2042,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="122.25" customHeight="1">
+    <row r="21" spans="1:2" ht="122.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -2035,7 +2050,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="33">
+    <row r="22" spans="1:2" ht="33" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -2043,7 +2058,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="108" customHeight="1">
+    <row r="23" spans="1:2" ht="108" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -2051,7 +2066,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="120.75" customHeight="1">
+    <row r="24" spans="1:2" ht="120.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -2059,135 +2074,135 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="65.25" customHeight="1">
+    <row r="25" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="56.25" customHeight="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="102" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="102" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="109.5" customHeight="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="124.5" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="124.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="100.5" customHeight="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="100.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="3" t="s">
+    </row>
+    <row r="32" spans="1:2" ht="33" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="33" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="33" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="33">
-      <c r="A32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="33">
-      <c r="A33" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="33">
-      <c r="A34" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="62.25" customHeight="1">
+    <row r="36" spans="1:2" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="62.25" customHeight="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>35</v>
       </c>
@@ -2195,28 +2210,28 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2234,12 +2249,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2247,12 +2262,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
